--- a/필기/Oracle/project_code/선택 테이블_김희태.xlsx
+++ b/필기/Oracle/project_code/선택 테이블_김희태.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.0.53\240805\일일과제\08월28일\데이터베이스 설계 미니프로젝트\요이땅~\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\20240805\Java\JavaTutorial\src\필기\Oracle\project_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>데이터 베이스명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,10 +95,6 @@
   </si>
   <si>
     <t>날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -180,6 +176,14 @@
 AREA VARCHAR2(10) NOT NULL,
 DATE TIMESTAMP
 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,6 +470,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -473,27 +498,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -787,7 +791,7 @@
   <dimension ref="B4:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -807,46 +811,46 @@
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="22"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="23"/>
+      <c r="G6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="26"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
     </row>
     <row r="8" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
@@ -883,13 +887,15 @@
         <v>15</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="H9" s="9"/>
       <c r="I9" s="10"/>
       <c r="J9" s="11"/>
@@ -899,10 +905,10 @@
         <v>16</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>12</v>
@@ -918,10 +924,10 @@
         <v>17</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -942,110 +948,110 @@
       <c r="J12" s="15"/>
     </row>
     <row r="15" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="17"/>
+      <c r="B15" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="24"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
         <v>33</v>
       </c>
-      <c r="G19" t="s">
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="24" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="8">
